--- a/ベジェ曲線.xlsx
+++ b/ベジェ曲線.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\masato\Desktop\KRP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\masato\Desktop\KRP\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B39BB0-1E56-41DB-A2AE-10AE195DC523}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE78F5E6-5393-4380-9007-BAC42F4D05C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{5C8251F8-6EB5-4998-BBC9-9F4037D106DA}"/>
+    <workbookView xWindow="1900" yWindow="0" windowWidth="15630" windowHeight="10200" xr2:uid="{5C8251F8-6EB5-4998-BBC9-9F4037D106DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,11 +20,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -862,64 +857,64 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>200</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>201.81249999999997</c:v>
+                  <c:v>287.54999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>207</c:v>
+                  <c:v>279.89999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>215.18749999999997</c:v>
+                  <c:v>276.60000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>226.00000000000006</c:v>
+                  <c:v>277.20000000000005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>239.0625</c:v>
+                  <c:v>281.25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>253.99999999999994</c:v>
+                  <c:v>288.29999999999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>270.4375</c:v>
+                  <c:v>297.90000000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>288.00000000000006</c:v>
+                  <c:v>309.60000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>306.31250000000011</c:v>
+                  <c:v>322.95000000000005</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>325</c:v>
+                  <c:v>337.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>343.68750000000006</c:v>
+                  <c:v>352.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>362.00000000000006</c:v>
+                  <c:v>368.40000000000003</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>379.5625</c:v>
+                  <c:v>383.85</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>395.99999999999994</c:v>
+                  <c:v>398.69999999999993</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>410.9375</c:v>
+                  <c:v>412.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>424.00000000000006</c:v>
+                  <c:v>424.80000000000007</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>434.8125</c:v>
+                  <c:v>435.15</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>443.00000000000006</c:v>
+                  <c:v>443.1</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>448.1875</c:v>
+                  <c:v>448.20000000000005</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>450</c:v>
@@ -1632,7 +1627,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>200</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>200</c:v>
@@ -2000,64 +1995,64 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>200</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>201.81249999999997</c:v>
+                  <c:v>287.54999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>207</c:v>
+                  <c:v>279.89999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>215.18749999999997</c:v>
+                  <c:v>276.60000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>226.00000000000006</c:v>
+                  <c:v>277.20000000000005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>239.0625</c:v>
+                  <c:v>281.25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>253.99999999999994</c:v>
+                  <c:v>288.29999999999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>270.4375</c:v>
+                  <c:v>297.90000000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>288.00000000000006</c:v>
+                  <c:v>309.60000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>306.31250000000011</c:v>
+                  <c:v>322.95000000000005</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>325</c:v>
+                  <c:v>337.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>343.68750000000006</c:v>
+                  <c:v>352.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>362.00000000000006</c:v>
+                  <c:v>368.40000000000003</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>379.5625</c:v>
+                  <c:v>383.85</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>395.99999999999994</c:v>
+                  <c:v>398.69999999999993</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>410.9375</c:v>
+                  <c:v>412.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>424.00000000000006</c:v>
+                  <c:v>424.80000000000007</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>434.8125</c:v>
+                  <c:v>435.15</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>443.00000000000006</c:v>
+                  <c:v>443.1</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>448.1875</c:v>
+                  <c:v>448.20000000000005</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>450</c:v>
@@ -8544,8 +8539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBB33278-3E69-47BC-8428-ED217C5266E6}">
   <dimension ref="B1:L87"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -8586,7 +8581,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="8">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D3" s="9">
         <v>200</v>
@@ -8612,7 +8607,7 @@
       </c>
       <c r="K3" s="19">
         <f>MMULT(G3:J3,$C$3:$C$6)</f>
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L3" s="21">
         <f>MMULT(G3:J3,$D$3:$D$6)</f>
@@ -8650,7 +8645,7 @@
       </c>
       <c r="K4" s="14">
         <f>MMULT(G4:J4,$C$3:$C$6)</f>
-        <v>201.81249999999997</v>
+        <v>287.54999999999995</v>
       </c>
       <c r="L4" s="15">
         <f t="shared" ref="L4:L23" si="4">MMULT(G4:J4,$D$3:$D$6)</f>
@@ -8688,7 +8683,7 @@
       </c>
       <c r="K5" s="14">
         <f t="shared" ref="K5:K23" si="5">MMULT(G5:J5,$C$3:$C$6)</f>
-        <v>207</v>
+        <v>279.89999999999998</v>
       </c>
       <c r="L5" s="15">
         <f t="shared" si="4"/>
@@ -8726,7 +8721,7 @@
       </c>
       <c r="K6" s="14">
         <f t="shared" si="5"/>
-        <v>215.18749999999997</v>
+        <v>276.60000000000002</v>
       </c>
       <c r="L6" s="15">
         <f t="shared" si="4"/>
@@ -8755,7 +8750,7 @@
       </c>
       <c r="K7" s="14">
         <f t="shared" si="5"/>
-        <v>226.00000000000006</v>
+        <v>277.20000000000005</v>
       </c>
       <c r="L7" s="15">
         <f t="shared" si="4"/>
@@ -8793,7 +8788,7 @@
       </c>
       <c r="K8" s="14">
         <f t="shared" si="5"/>
-        <v>239.0625</v>
+        <v>281.25</v>
       </c>
       <c r="L8" s="15">
         <f t="shared" si="4"/>
@@ -8831,7 +8826,7 @@
       </c>
       <c r="K9" s="14">
         <f t="shared" si="5"/>
-        <v>253.99999999999994</v>
+        <v>288.29999999999995</v>
       </c>
       <c r="L9" s="15">
         <f t="shared" si="4"/>
@@ -8869,7 +8864,7 @@
       </c>
       <c r="K10" s="14">
         <f t="shared" si="5"/>
-        <v>270.4375</v>
+        <v>297.90000000000003</v>
       </c>
       <c r="L10" s="15">
         <f t="shared" si="4"/>
@@ -8907,7 +8902,7 @@
       </c>
       <c r="K11" s="14">
         <f t="shared" si="5"/>
-        <v>288.00000000000006</v>
+        <v>309.60000000000002</v>
       </c>
       <c r="L11" s="15">
         <f t="shared" si="4"/>
@@ -8945,7 +8940,7 @@
       </c>
       <c r="K12" s="14">
         <f t="shared" si="5"/>
-        <v>306.31250000000011</v>
+        <v>322.95000000000005</v>
       </c>
       <c r="L12" s="15">
         <f t="shared" si="4"/>
@@ -8974,7 +8969,7 @@
       </c>
       <c r="K13" s="14">
         <f t="shared" si="5"/>
-        <v>325</v>
+        <v>337.5</v>
       </c>
       <c r="L13" s="15">
         <f t="shared" si="4"/>
@@ -9012,7 +9007,7 @@
       </c>
       <c r="K14" s="14">
         <f t="shared" si="5"/>
-        <v>343.68750000000006</v>
+        <v>352.8</v>
       </c>
       <c r="L14" s="15">
         <f t="shared" si="4"/>
@@ -9050,7 +9045,7 @@
       </c>
       <c r="K15" s="14">
         <f t="shared" si="5"/>
-        <v>362.00000000000006</v>
+        <v>368.40000000000003</v>
       </c>
       <c r="L15" s="15">
         <f t="shared" si="4"/>
@@ -9088,7 +9083,7 @@
       </c>
       <c r="K16" s="14">
         <f t="shared" si="5"/>
-        <v>379.5625</v>
+        <v>383.85</v>
       </c>
       <c r="L16" s="15">
         <f t="shared" si="4"/>
@@ -9126,7 +9121,7 @@
       </c>
       <c r="K17" s="14">
         <f t="shared" si="5"/>
-        <v>395.99999999999994</v>
+        <v>398.69999999999993</v>
       </c>
       <c r="L17" s="15">
         <f t="shared" si="4"/>
@@ -9164,7 +9159,7 @@
       </c>
       <c r="K18" s="14">
         <f t="shared" si="5"/>
-        <v>410.9375</v>
+        <v>412.5</v>
       </c>
       <c r="L18" s="15">
         <f t="shared" si="4"/>
@@ -9193,7 +9188,7 @@
       </c>
       <c r="K19" s="14">
         <f t="shared" si="5"/>
-        <v>424.00000000000006</v>
+        <v>424.80000000000007</v>
       </c>
       <c r="L19" s="15">
         <f t="shared" si="4"/>
@@ -9231,7 +9226,7 @@
       </c>
       <c r="K20" s="14">
         <f t="shared" si="5"/>
-        <v>434.8125</v>
+        <v>435.15</v>
       </c>
       <c r="L20" s="15">
         <f t="shared" si="4"/>
@@ -9269,7 +9264,7 @@
       </c>
       <c r="K21" s="14">
         <f t="shared" si="5"/>
-        <v>443.00000000000006</v>
+        <v>443.1</v>
       </c>
       <c r="L21" s="15">
         <f t="shared" si="4"/>
@@ -9307,7 +9302,7 @@
       </c>
       <c r="K22" s="14">
         <f t="shared" si="5"/>
-        <v>448.1875</v>
+        <v>448.20000000000005</v>
       </c>
       <c r="L22" s="15">
         <f t="shared" si="4"/>
@@ -9670,7 +9665,7 @@
     <row r="33" spans="3:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C33">
         <f>C3</f>
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D33">
         <f>D3</f>
@@ -11402,7 +11397,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62657281-560B-4B3B-9C8B-E921CF1C0129}">
   <dimension ref="B1:AP509"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="Z509" sqref="Z9:Z509"/>
     </sheetView>
   </sheetViews>
@@ -11937,11 +11932,11 @@
         <v>0</v>
       </c>
       <c r="Y9" s="48">
-        <f t="shared" ref="Y9:Y19" si="12">MMULT(U9:X9,$U$3:$U$6)</f>
+        <f t="shared" ref="Y9:Y10" si="12">MMULT(U9:X9,$U$3:$U$6)</f>
         <v>0</v>
       </c>
       <c r="Z9" s="48">
-        <f t="shared" ref="Z9:Z19" si="13">MMULT(U9:X9,$V$3:$V$6)</f>
+        <f t="shared" ref="Z9:Z10" si="13">MMULT(U9:X9,$V$3:$V$6)</f>
         <v>0</v>
       </c>
       <c r="AB9" s="48">
@@ -12061,19 +12056,19 @@
         <v>2E-3</v>
       </c>
       <c r="U10" s="48">
-        <f t="shared" ref="U10:U19" si="14">(1-T10)^3</f>
+        <f t="shared" ref="U10:U11" si="14">(1-T10)^3</f>
         <v>0.99401199200000001</v>
       </c>
       <c r="V10" s="48">
-        <f t="shared" ref="V10:V19" si="15">(1-T10)^2*T10*3</f>
+        <f t="shared" ref="V10:V11" si="15">(1-T10)^2*T10*3</f>
         <v>5.9760239999999999E-3</v>
       </c>
       <c r="W10" s="48">
-        <f t="shared" ref="W10:W19" si="16">(1-T10)*T10^2*3</f>
+        <f t="shared" ref="W10:W11" si="16">(1-T10)*T10^2*3</f>
         <v>1.1976E-5</v>
       </c>
       <c r="X10" s="48">
-        <f t="shared" ref="X10:X19" si="17">T10^3</f>
+        <f t="shared" ref="X10:X11" si="17">T10^3</f>
         <v>8.0000000000000005E-9</v>
       </c>
       <c r="Y10" s="48">
